--- a/Modeling/test.xlsx
+++ b/Modeling/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dacon\Power-usage-Prediction\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DCD99F-8F03-4990-9344-8BC56B42D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD63C096-8AFE-4544-B9F2-3C68574E2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="0" windowWidth="10580" windowHeight="16000" xr2:uid="{D48FDE80-163D-4F35-B5C1-0708C0AE193B}"/>
+    <workbookView xWindow="13260" yWindow="0" windowWidth="12340" windowHeight="16000" xr2:uid="{D48FDE80-163D-4F35-B5C1-0708C0AE193B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,11 +38,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>building_number</t>
+    <t>smape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smape</t>
+    <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,12 +67,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,11 +111,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38F0C90-838F-40D8-AB59-D043216D75BD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -430,19 +450,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>6.5036181720617501</v>
+        <v>5.9721325328355199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.3059388694393101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.7963823822220002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.9039098263168199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.7631712223700999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.5396175607314397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.9386927548574002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.0973153706876193</v>
       </c>
     </row>
   </sheetData>
